--- a/datasets/Chamados_Treino.xlsx
+++ b/datasets/Chamados_Treino.xlsx
@@ -316,7 +316,7 @@
     <t>constat process n numer numer numer numer numer numer tc devid public d hoj numer numer entant aparec envelop pend registr ato torn imposs demal ato registr</t>
   </si>
   <si>
-    <t>detect registr tabel exe debit possu decis relacion possu camp idinformaca preench pod ger registr problem futur protest idcomposicaopautanumer</t>
+    <t>detect registr tabel exe debit possu decis relacion possu camp idinformaca preench pod ger registr problem futur protest idcomposicaop numer</t>
   </si>
   <si>
     <t>venh atraves dest solic cri modul pagin aca assim mostr imag anex posteri ser cri perfil nom relarori geral ond contenh aca cri anteri posteri dar acess usuar numer</t>
@@ -355,7 +355,7 @@
     <t>verific comput</t>
   </si>
   <si>
-    <t>ord coorden geral retif dat event cit memor n numer numer escol cuj text corret pass ser ord coorden geral solicit voss senh liber numer tecn informa trabalh event workshop projet redesenh gest public dia numer numer numer numer sal trein escol dia numer numer numer auditori tce rn hor numeroh numeroh</t>
+    <t>ord coorden geral retif dat event cit memor n numer numer escol cuj text corret pass ser ord coorden geral solicit voss senh liber numer tecn informa trabalh event workshop projet redesenh gest public dia numer numer numer numer sal trein escol dia numer numer numer auditori tce rn hor numer h numer h</t>
   </si>
   <si>
     <t>solicit chav acess envi question refer exercici numer prefeit coronel joa pesso</t>
@@ -373,10 +373,10 @@
     <t>alt erac oper cpf numer nom alin cristin dia silv</t>
   </si>
   <si>
-    <t>cadastr pesso inidone cpf numer nom rit cass mour bezerr orig inform sec judiciar rio grand nort numeroa var</t>
-  </si>
-  <si>
-    <t>bom dia solicit public fs lan appweb hom hom iissqlnumer siaidpapihom favor</t>
+    <t>cadastr pesso inidone cpf numer nom rit cass mour bezerr orig inform sec judiciar rio grand nort numer a var</t>
+  </si>
+  <si>
+    <t>bom dia solicit public fs lan appweb hom hom iissql numer siaidpapihom favor</t>
   </si>
   <si>
     <t>err assin public inform err column nam or numb of supplied valu doe not match tabl definition</t>
@@ -529,7 +529,7 @@
     <t>usu solicit cadastr nov cart antig cart dificuldad pass catrac</t>
   </si>
   <si>
-    <t>jurdiscion consegu parcel mult port respons exempl process numer numer cpf numer codig acess anumerobafnumer</t>
+    <t>jurdiscion consegu parcel mult port respons exempl process numer numer cpf numer codig acess numer baf numer</t>
   </si>
   <si>
     <t>detect div sistem process cit comarc cit n numer cuj municipi cit exist tabel comarc homolog protest</t>
@@ -565,7 +565,7 @@
     <t>ofert cumpr estil solicit ra est interin assum func chef gabinet implement login funcional apens desapens process</t>
   </si>
   <si>
-    <t>venh atraves dest solic public servic intern api ja dispon homolog fslan appweb hom hom iissqlnumer servicoshom</t>
+    <t>venh atraves dest solic public servic intern api ja dispon homolog fslan appweb hom hom iissql numer servicoshom</t>
   </si>
   <si>
     <t>usuar inform val cont pag bem difer val coloc program inform usuar pod verific inform via tel registr inform anex numer desp ver falt dev correc inform inform colet siop bas tce inform org tce cas exist diferenc dev ser detect corrig propri usu</t>
@@ -580,7 +580,7 @@
     <t>senh tati entr contat duvid anex numer port ges</t>
   </si>
   <si>
-    <t>usu tent inser dat doe process numer numer sistem apresent err microsoft ole db provid sql serv err numeroenumer dat public precis ser preench sistem process registrarat asp lin numer anex print err</t>
+    <t>usu tent inser dat doe process numer numer sistem apresent err microsoft ole db provid sql serv err numer numer dat public precis ser preench sistem process registrarat asp lin numer anex print err</t>
   </si>
   <si>
     <t>usuar acab receb senh gost sab faz pra cadastr usuari inform cadastr feit apos acess port ges link administr cadastr usu apos ser direcion nov tel cadastr dev ser feit numer pass numer cadastr usu numer coloc permiss</t>
@@ -592,7 +592,7 @@
     <t>configur oper</t>
   </si>
   <si>
-    <t>venh atraves dest solic publ sistem sit tce disponi homolog fs lan appweb releas hom iissqlnumer wwwreleas</t>
+    <t>venh atraves dest solic publ sistem sit tce disponi homolog fs lan appweb releas hom iissql numer wwwreleas</t>
   </si>
   <si>
     <t>problem log pc</t>
@@ -685,7 +685,7 @@
     <t>configur notebook qatc tomb n numer</t>
   </si>
   <si>
-    <t>instal pc posi cnumer tomb numer moni posi numerompnumeropj tomb numer</t>
+    <t>instal pc posi c numer tomb numer moni posi numer mp numer pj tomb numer</t>
   </si>
   <si>
     <t>instal sistem ergon are trabalh vou inclu inform process sistem ped instal extens</t>
@@ -760,7 +760,7 @@
     <t>alt erac oper cpf numer nom mari bezerr ferr</t>
   </si>
   <si>
-    <t>cord cumpr ord senh secret geral venh inform voss senh acerc peregrin imag senh apresent padro dest capit nest tribun cont comemor numeroa fest padro organiz arquidioces natal destart di celebr sant miss prev numer hor dia numer numer numer solicit prest voss senh sent design tecn manutenc sonor dar suport decorr realiz cit event dev inclusiv ser disponibil microfon conform necess celebr demal envolv ato liturg tel</t>
+    <t>cord cumpr ord senh secret geral venh inform voss senh acerc peregrin imag senh apresent padro dest capit nest tribun cont comemor numer a fest padro organiz arquidioces natal destart di celebr sant miss prev numer hor dia numer numer numer solicit prest voss senh sent design tecn manutenc sonor dar suport decorr realiz cit event dev inclusiv ser disponibil microfon conform necess celebr demal envolv ato liturg tel</t>
   </si>
   <si>
     <t>usuar entr contat aleg mous mesm funcion</t>
@@ -823,7 +823,7 @@
     <t>cri set ttrabalh numer glob ttrabalh numer past set dar acess glob ttrabalh numer past ttrabalh informaco dar acess glob trabalh padr adot mesm numer past ttrabalh informaco temp segu seguranc padr adot mesm numer past ttrabalh informaco pdf seg seguranc padr adot mesm</t>
   </si>
   <si>
-    <t>ola identific err deploy ambi integraca detalh err aqu http gitlab tce govrn siaidp cole client job numer numer numer numer numer numer numer err numer numeroxnumer cri diret rio destin fs lan appweb dev dev sqlnumer siaidpcoletordev acess neg</t>
+    <t>ola identific err deploy ambi integraca detalh err aqu http gitlab tce govrn siaidp cole client job numer numer numer numer numer numer numer err numer numer x numer cri diret rio destin fs lan appweb dev dev sql numer siaidpcoletordev acess neg</t>
   </si>
   <si>
     <t>solicit prepar auditori reun sobr aca corden dap</t>
@@ -853,7 +853,7 @@
     <t>proc numer numer numer numer tent envi protest aparec sistem protestoextrajudic envioderemess asp lin numer dat apresent dev ser superi dat venc bolet numer</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem tceap disponi fs lan appweb hom hom iissqlnumer tceapihom</t>
+    <t>venh atraves dest solic public sistem tceap disponi fs lan appweb hom hom iissql numer tceapihom</t>
   </si>
   <si>
     <t>prepar equip sal trein escol</t>
@@ -940,7 +940,7 @@
     <t>process numer numer envi protest retorn inform protest</t>
   </si>
   <si>
-    <t>dev cumpr consider minist public trabalh requisit cop process nnumer numer tc consider process extens ord chef gabinet presid encaminh pres memor diret informa cri process mid extern</t>
+    <t>dev cumpr consider minist public trabalh requisit cop process n numer numer tc consider process extens ord chef gabinet presid encaminh pres memor diret informa cri process mid extern</t>
   </si>
   <si>
     <t>localiz process set</t>
@@ -970,7 +970,7 @@
     <t>solicit inform nom fic verd tel list pessoal tce tend pass digit catrac inform sensibil nom indic presenc predi demand ges contrat</t>
   </si>
   <si>
-    <t>venh atraves dest solic public arqu sit tce emitircertificadofr cshtml disponi fs lan appweb releas hom iissqlnumer wwwreleas view escolacont emitircertificadofr cshtml</t>
+    <t>venh atraves dest solic public arqu sit tce emitircertificadofr cshtml disponi fs lan appweb releas hom iissql numer wwwreleas view escolacont emitircertificadofr cshtml</t>
   </si>
   <si>
     <t>conform report cham numer problem imprim bolet port respons espec relac parcel exempl recent process numer numer interess report telefon clic ger bolet aparec alert err vid anex ra diss ger bolet are restrit envi lo email</t>
@@ -991,7 +991,7 @@
     <t>usu inform nao est consegu envi result licit apos convers identific usu ultrapass limit caract nom it lot apos correc consegu realiz envi problem</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem port ges especific arqu consult cshtml disponi fs lan appweb hotfix hom iissqlnumer portalgestorhotfix view envioeditaispend</t>
+    <t>venh atraves dest solic public sistem port ges especific arqu consult cshtml disponi fs lan appweb hotfix hom iissql numer portalgestorhotfix view envioeditaispend</t>
   </si>
   <si>
     <t>usu inform nao consegu cri org si numer prez cri org program necess clic icon binocul segu bot nov</t>
@@ -1039,7 +1039,7 @@
     <t>usu entend mens ped melhor inform si tcern numer numer numer minut renat prez dentr err process encontr numer err dev ser feit corrig lo numer numer numer val previs envi prest cont bimestr anteri diverg daquel envi arqu quart bimestr numer val envi prest cont bimestr anteri diverg daquel envi arqu quart bimestr dest form necess reenvi bimestr inform alt er envi quart bimestr process sucess numer numer necess cadastr oper tip receit nad par codig receit font recurs necess poi cadastr deduc ond tid receit atencios</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sit tce dispon homolog fs lan appweb releas hom iissqlnumer wwwreleas ob lembr substitu arqu past config arqu web config</t>
+    <t>venh atraves dest solic public sit tce dispon homolog fs lan appweb releas hom iissql numer wwwreleas ob lembr substitu arqu past config arqu web config</t>
   </si>
   <si>
     <t>troc email nov si</t>
@@ -1321,7 +1321,7 @@
     <t>problem pont</t>
   </si>
   <si>
-    <t>consegu comprim arqu public tamanh sit tce rn requ numeromb prez inform exist sit ond possibilit diminu tamanh arqu format pdf dess form solicit realiz proced segu realiz nov envi</t>
+    <t>consegu comprim arqu public tamanh sit tce rn requ numer mb prez inform exist sit ond possibilit diminu tamanh arqu format pdf dess form solicit realiz proced segu realiz nov envi</t>
   </si>
   <si>
     <t>alt erac oper cpf numer nom regin cel coelh moral</t>
@@ -1459,7 +1459,7 @@
     <t>consegu acess mut dae</t>
   </si>
   <si>
-    <t>cumpr estil solicit voss senh disponibil dae numer estabiliz impres hpnumer</t>
+    <t>cumpr estil solicit voss senh disponibil dae numer estabiliz impres hp numer</t>
   </si>
   <si>
     <t>configur perfil digit</t>
@@ -1480,7 +1480,7 @@
     <t>cadastr usu gerenci inclu prefeit fund saud assist soc institut previd municipi paul poteng</t>
   </si>
   <si>
-    <t>solicit cri cham abert recorr seman sext feir numeroh seguint descr realiz atual pacot adob apg coloc joa mar respons ruteni atend lariss freit font solicit</t>
+    <t>solicit cri cham abert recorr seman sext feir numer h seguint descr realiz atual pacot adob apg coloc joa mar respons ruteni atend lariss freit font solicit</t>
   </si>
   <si>
     <t>pc trav</t>
@@ -1570,7 +1570,7 @@
     <t>cadastr ocorrenc hardw problem encontr comput bip usu maril set dam tce numer tomb numer problem detect</t>
   </si>
   <si>
-    <t>numer ofert cumpr estil ord procur luci rib camp solicit implement nov relatori anex si analis dp mold reun realiz dout procur dire informa dia numer agost numer numerohnumer numer mold ajust reduz term nest memor solicit feit reun supramencion bem aproveit oportun anex arqu word excel model inform ser oferec nov anex relatori numer nov anex dev traz inform sobr proporc serv tempor efet comission quadr pessoal municipi cont si dp numer cert atend quant solicit formul aguard nov inform quant cumpr dilig bem disponh esclarec event duv surg equip program</t>
+    <t>numer ofert cumpr estil ord procur luci rib camp solicit implement nov relatori anex si analis dp mold reun realiz dout procur dire informa dia numer agost numer numer h numer numer mold ajust reduz term nest memor solicit feit reun supramencion bem aproveit oportun anex arqu word excel model inform ser oferec nov anex relatori numer nov anex dev traz inform sobr proporc serv tempor efet comission quadr pessoal municipi cont si dp numer cert atend quant solicit formul aguard nov inform quant cumpr dilig bem disponh esclarec event duv surg equip program</t>
   </si>
   <si>
     <t>usu solicit planilh receit desp prefeit municip ruy barb ref numer bimestr numer</t>
@@ -1666,7 +1666,7 @@
     <t>falh autentic usu comput</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem sit tce fs lan appweb releas hom iissqlnumer wwwreleas copi arqu web config past config atual arqu web config vers sistem numer numer</t>
+    <t>venh atraves dest solic public sistem sit tce fs lan appweb releas hom iissql numer wwwreleas copi arqu web config past config atual arqu web config vers sistem numer numer</t>
   </si>
   <si>
     <t>cadastr oper cpf numer nom jadson anderson med silv</t>
@@ -1765,7 +1765,7 @@
     <t>solicit lig equip</t>
   </si>
   <si>
-    <t>cumpr estil venh mei dest expedi solic loc auditori dia numer numer numer period numeroh numeroh particip anal control extern ti numer semin internac analis dad administr public ser realiz transmit tcu atraves youtub</t>
+    <t>cumpr estil venh mei dest expedi solic loc auditori dia numer numer numer period numer h numer h particip anal control extern ti numer semin internac analis dad administr public ser realiz transmit tcu atraves youtub</t>
   </si>
   <si>
     <t>alt erac oper cpf numer nom ana karoliny queiroz martim lim</t>
@@ -1774,7 +1774,7 @@
     <t>instal ietab</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem tceauth fs lan appweb hom hom iissqlnumer tceauthhom nao sobrescrev past config arqu web config</t>
+    <t>venh atraves dest solic public sistem tceauth fs lan appweb hom hom iissql numer tceauthhom nao sobrescrev past config arqu web config</t>
   </si>
   <si>
     <t>cord cumpr inform serv mar gabriell figueired xavi design trabalh extern dia numer agost numer perfaz carg horar cobert semin promov escol cont sebra contabiliz numer hor trabalh alem dua hor diagram diari eletron enc set compet dev ajust sistem pont</t>
@@ -1783,7 +1783,7 @@
     <t>usu solicit planilh receit desp prefeit municip rafael ref numer bimestr numer</t>
   </si>
   <si>
-    <t>solicit analis err si numer surg mens err imagemnumer imped import anex numer err ocorr retific bimestr exercici numer import numer bimestr imag numer abaix anex envi print arqu txt auxili analis err cas necess seg aind backup si numer vers numer numer</t>
+    <t>solicit analis err si numer surg mens err imag numer imped import anex numer err ocorr retific bimestr exercici numer import numer bimestr imag numer abaix anex envi print arqu txt auxili analis err cas necess seg aind backup si numer vers numer numer</t>
   </si>
   <si>
     <t>cham configur inic comput</t>
@@ -1801,7 +1801,7 @@
     <t>aprov solicit funcional codig numer nom ana lyg gued mar</t>
   </si>
   <si>
-    <t>dand seguint err abaix anex arqu arearestr favor reset pool ii err temp execuc microsoft vbscript err numeroanumer memor insufici binary upload upload asp lin numer</t>
+    <t>dand seguint err abaix anex arqu arearestr favor reset pool ii err temp execuc microsoft vbscript err numer numer memor insufici binary upload upload asp lin numer</t>
   </si>
   <si>
     <t>solicit tecn digital document</t>
@@ -1816,7 +1816,7 @@
     <t>usu duvid process ped melhor orient inform realiz modific si colet arqu envi ger inconsist inform necess reenvi bimestr q inform modific sequenc reenvi quart bimestr</t>
   </si>
   <si>
-    <t>prez solicit determin procur ricart ces coelh sant providenc export mid eletron refer process n numer numer tc esclarec oportun mid pod ser disponibil atraves past public dest gabinet srv fsnumer publ proc gab ricart</t>
+    <t>prez solicit determin procur ricart ces coelh sant providenc export mid eletron refer process n numer numer tc esclarec oportun mid pod ser disponibil atraves past public dest gabinet srv fs numer publ proc gab ricart</t>
   </si>
   <si>
     <t>clic visual process numer numer numer numer aparec err</t>
@@ -1867,7 +1867,7 @@
     <t>invert colun distribu inform ger relatori produt dap bem inser somatori mesm</t>
   </si>
   <si>
-    <t>break up numerov one tomb numer ns numer</t>
+    <t>break up numer va one tomb numer ns numer</t>
   </si>
   <si>
     <t>orient sobr renov certific digit</t>
@@ -1921,7 +1921,7 @@
     <t>tent ger arqu prest cont numer bimestr surg mens err clic ok sistem fech</t>
   </si>
   <si>
-    <t>acess relatori org situ entreg rre rgf dam prefeit bent trair ano numer aparec seguint mens cryst report activex design err numeroenumer failed to open rowset detail numer microsoft odbc sql serv driv sql serv subquery returned mor than numer valu thil is not permitted when the subquery follow or when the subquery is used an expression tce port arearestrit sistem rel orga relatori imprimirrptnov asp lin numer</t>
+    <t>acess relatori org situ entreg rre rgf dam prefeit bent trair ano numer aparec seguint mens cryst report activex design err numer numer failed to open rowset detail numer microsoft odbc sql serv driv sql serv subquery returned mor than numer valu thil is not permitted when the subquery follow or when the subquery is used an expression tce port arearestrit sistem rel orga relatori imprimirrptnov asp lin numer</t>
   </si>
   <si>
     <t>seg anex xxxvii refer dispens licit n numer numer document anex apresent inconsist inform nel cont poi inform ger sistem part inferi diret pagin diz dat hor envi numer numer numer numer numer numer dat hor cri dest document numer numer numer numer numer numer portant inform diverg segund usu envi total envi dia numer numer di dess inform gost ver algum registr envi anteri nest process correspond dat inform recib dat envi numer numer numer numer</t>
@@ -1945,7 +1945,7 @@
     <t>usu solicit auxili substitu ton</t>
   </si>
   <si>
-    <t>cadastr ocorrenc hardw problem encontr comput posi dnumer defeit maquin reinici tomb numer din numer usu claudi set stm and numer problem detect</t>
+    <t>cadastr ocorrenc hardw problem encontr comput posi d numer defeit maquin reinici tomb numer din numer usu claudi set stm and numer problem detect</t>
   </si>
   <si>
     <t>aprov solicit funcional codig numer nom heli assil cost</t>
@@ -2113,7 +2113,7 @@
     <t>cumpr estil ord conselh substitut marc antoni moral reg montenegr solicit cadastr pont eletron estagiar alan raiss fernand cpf numer numer numer cumprir jorn numer hor segund sext</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem port tce client api disponi homolog api tce fs lan appweb hom hom iissqlnumer portaletceapihom api substitu past config arqu web config client etc fs lan appweb hom hom iissqlnumer portaletcehom client bast faz cop past app substitu past environment</t>
+    <t>venh atraves dest solic public sistem port tce client api disponi homolog api tce fs lan appweb hom hom iissql numer portaletceapihom api substitu past config arqu web config client etc fs lan appweb hom hom iissql numer portaletcehom client bast faz cop past app substitu past environment</t>
   </si>
   <si>
     <t>configur notebook espelh tv</t>
@@ -2230,7 +2230,7 @@
     <t>solicit diret conselh substitut ana paul oliv gom acess are restrit dest gabinet virtud refer conselh conso port n numer numer gp tce numer outubr numer ter sid design substitu conselh tarcisi cost period numer setembr numer numer outubr numer</t>
   </si>
   <si>
-    <t>solicit public sit aplic encontr fs lan appweb releas hom iissqlnumer wwwreleas obrig</t>
+    <t>solicit public sit aplic encontr fs lan appweb releas hom iissql numer wwwreleas obrig</t>
   </si>
   <si>
     <t>pagin ieg dispon sit tce rn tent envi mail apresent err conform figur anex</t>
@@ -2284,7 +2284,7 @@
     <t>process numer numer div numer aba pend aparec devolv irregular difer aparec retorn div const dat envi posteri venc consig reenvi</t>
   </si>
   <si>
-    <t>via whatsapp process agent ta consegu faz nenhum alt erac acord numeroa numer secpc process numer numer</t>
+    <t>via whatsapp process agent ta consegu faz nenhum alt erac acord numer a numer secpc process numer numer</t>
   </si>
   <si>
     <t>proc numer numer consig envi protest verific pendenc aparec inform compos paut inform bas inform</t>
@@ -2437,7 +2437,7 @@
     <t>prez tent cadast alert eletron sistem acus err conform imag anex</t>
   </si>
   <si>
-    <t>ap oacut s justific pont atest comparec hor usu ser aprov hor calcul comput banc superi inform exib atest cas colabor possui numeroh numeromin dia atest exib unic numeroh ser contabil apos aprov contabil numeroh numeromin pont usu ver imag anex</t>
+    <t>ap oacut s justific pont atest comparec hor usu ser aprov hor calcul comput banc superi inform exib atest cas colabor possui numer h numer min dia atest exib unic numer h ser contabil apos aprov contabil numer h numer min pont usu ver imag anex</t>
   </si>
   <si>
     <t>cord cumpr solicit inclus arqu anex siti eletron dest tce aba ouvid dentr relatori trimestr padr adot prim trimestr</t>
@@ -2494,7 +2494,7 @@
     <t>problem loop pagin abert</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem tce precis arqu fs lan appweb hom hom iissqlnumer portaletcehom app tce tce component js dispon homolog</t>
+    <t>venh atraves dest solic public sistem tce precis arqu fs lan appweb hom hom iissql numer portaletcehom app tce tce component js dispon homolog</t>
   </si>
   <si>
     <t>prez coorden cordial estil solicit disponibil estabiliz impres dest diret notad fic situ atri centr sal tecn prox estaca trabalh serv romild farah viabiliz consecuc ativ func vez apes exist impres encontr inabilit uso virtud falt refer estabiliz</t>
@@ -2509,7 +2509,7 @@
     <t>coloc pesso liber justific justific</t>
   </si>
   <si>
-    <t>cumpr estil solicit acess estagiar iril freit camp matricul numer cpf numer are restrit dam fge coorden fiscal cont gest past srv fsnumer dam fge</t>
+    <t>cumpr estil solicit acess estagiar iril freit camp matricul numer cpf numer are restrit dam fge coorden fiscal cont gest past srv fs numer dam fge</t>
   </si>
   <si>
     <t>diverg siop si</t>
@@ -2521,7 +2521,7 @@
     <t>realiz correc total val ger si apos import arqu refer anex numer linh receit corr liqu rcl colun exercici anteri rcifra numer numer numer err colun numer quadrimestr rcifra numer numer numer corret colun numer quadrimestr rcifra numer numer numer corret val dev ter sid ger si apos import arqu refer anex numer linh receit corr liqu rcl colun exercici anteri rcifra numer numer numer corret colun numer quadrimestr rcifra numer numer numer corret colun numer quadrimestr rcifra numer numer numer corret</t>
   </si>
   <si>
-    <t>usu tent assin decis monocra process numer numer sistem apresent err cryst report activex design err numeroenumer query engin err hynumer microsoft odbc sql serv driv instruc associ prepar tce port arearestrit sistem ata relatori imprimirrptnov asp lin numer</t>
+    <t>usu tent assin decis monocra process numer numer sistem apresent err cryst report activex design err numer numer query engin err hy numer microsoft odbc sql serv driv instruc associ prepar tce port arearestrit sistem ata relatori imprimirrptnov asp lin numer</t>
   </si>
   <si>
     <t>cadastr gerenci usuar marc numer</t>
@@ -2533,7 +2533,7 @@
     <t>solicit via email renov senh are restrit seguint oper fiscaliz mp rn robson carl silv cpf n numer numer numer vaness franc numer numer numer</t>
   </si>
   <si>
-    <t>err temp execuc microsoft vbscript err numeroanumero arqu exist sistem digitalizacaodeprocess desconverterprocessoeletron asp lin numer</t>
+    <t>err temp execuc microsoft vbscript err numer numer arqu exist sistem digitalizacaodeprocess desconverterprocessoeletron asp lin numer</t>
   </si>
   <si>
     <t>conced permiss glob cpd glob cpd dev</t>
@@ -2704,7 +2704,7 @@
     <t>consult inform dispon anex numer si sistem retorn mens err anex</t>
   </si>
   <si>
-    <t>cadastr pesso inidone cpf numer nom gerald alexandr mai orig inform pod judici feder numeroa var subsec pau ferr</t>
+    <t>cadastr pesso inidone cpf numer nom gerald alexandr mai orig inform pod judici feder numer a var subsec pau ferr</t>
   </si>
   <si>
     <t>precis instal</t>
@@ -2737,7 +2737,7 @@
     <t>solicit public siaianaliseap produc aplic dispon homolog obrig</t>
   </si>
   <si>
-    <t>lig proje part numer numeroh sal presid</t>
+    <t>lig proje part numer numer h sal presid</t>
   </si>
   <si>
     <t>alt erac oper cpf numer nom wild bezerr alenc carvalh</t>
@@ -2791,7 +2791,7 @@
     <t>configur acess past set</t>
   </si>
   <si>
-    <t>ord coorden geral solicit voss senh autor aquis impres multifunc ecotank lnumer conform model anex ra impres hp col las jet pro mfp mnumerofw exist nest set ser bast lent apresent problem tecn const prejudic assim impress document relatori escol cont</t>
+    <t>ord coorden geral solicit voss senh autor aquis impres multifunc ecotank l numer conform model anex ra impres hp col las jet pro mfp m numer fw exist nest set ser bast lent apresent problem tecn const prejudic assim impress document relatori escol cont</t>
   </si>
   <si>
     <t>alt erac oper cpf numer nom nathaly thuann ferr lim</t>
@@ -2881,7 +2881,7 @@
     <t>problem impres</t>
   </si>
   <si>
-    <t>favor cri nov aplic dentr aplic exist fs lan appweb dev dev sqlnumer siaiapconcessoesdev vnumer fs lan appweb dev dev sqlnumer siaidpgestordev vnumer projet migr nov arquitet eh necessari mant consult aind verso anteri log vam cri past vnumer cad</t>
+    <t>favor cri nov aplic dentr aplic exist fs lan appweb dev dev sql numer siaiapconcessoesdev v numer fs lan appweb dev dev sql numer siaidpgestordev v numer projet migr nov arquitet eh necessari mant consult aind verso anteri log vam cri past v numer cad</t>
   </si>
   <si>
     <t>cord cumpr solicit ord inclus doi arqu anex siti eletron dest tce aba ouvid especific camp legisl</t>
@@ -2899,7 +2899,7 @@
     <t>duvid imprim etiquet</t>
   </si>
   <si>
-    <t>cumpr estil enc estagiar leil beatriz cost silv cpf numer numer numer cadastr biometr usu const trabalh numeroh segund sext feir</t>
+    <t>cumpr estil enc estagiar leil beatriz cost silv cpf numer numer numer cadastr biometr usu const trabalh numer h segund sext feir</t>
   </si>
   <si>
     <t>cadastr oper cpf numer nom ana carolin leit ucho alme</t>
@@ -2908,7 +2908,7 @@
     <t>usu solicit configur term oper comput vei manutenc</t>
   </si>
   <si>
-    <t>favor verific cart pont julh numer dia numer numer hor extr trabalh nest doi dia autor abon dire porem hor trabalh nest doi dia comput solicit hor adic aprox numeroh consid efeit banc hor imag anex</t>
+    <t>favor verific cart pont julh numer dia numer numer hor extr trabalh nest doi dia autor abon dire porem hor trabalh nest doi dia comput solicit hor adic aprox numer h consid efeit banc hor imag anex</t>
   </si>
   <si>
     <t>dev cumpr estil solicit cadastr estagiar nucle sustent alin cristin dia silv</t>
@@ -2950,7 +2950,7 @@
     <t>colet extens auditori</t>
   </si>
   <si>
-    <t>tent cadastr inform process numer numer numer numer numer numer numer numer numer numer numer numer numer medi uso mal diret aparec seguint err digit senh token microsoft ole db provid sql serv err numeroenumer im ert err column nam or numb of supplied valu doe not match tabl definition sistem informaco movdigitarinformacaopin asp lin numer err ocorr vou opc digit inform assin</t>
+    <t>tent cadastr inform process numer numer numer numer numer numer numer numer numer numer numer numer numer medi uso mal diret aparec seguint err digit senh token microsoft ole db provid sql serv err numer numer im ert err column nam or numb of supplied valu doe not match tabl definition sistem informaco movdigitarinformacaopin asp lin numer err ocorr vou opc digit inform assin</t>
   </si>
   <si>
     <t>ocorr err mot lot process numer numer pod ser tramit poi exist decis monocra cadastr aind liber public doe</t>
@@ -2986,16 +2986,16 @@
     <t>valid nf numer numer isaltec comerci instrument med ltd numer process numer numer</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem sit tce dispon homolog fs lan appweb releas hom iissqlnumer wwwreleas</t>
-  </si>
-  <si>
-    <t>ped luci cout numeroa plen preocess ta saind paut dr paul ped vist thompson quot</t>
+    <t>venh atraves dest solic public sistem sit tce dispon homolog fs lan appweb releas hom iissql numer wwwreleas</t>
+  </si>
+  <si>
+    <t>ped luci cout numer a plen preocess ta saind paut dr paul ped vist thompson quot</t>
   </si>
   <si>
     <t>consig acess diari ofic refer outubr novembr ano numer novembr numer aparec doi diari numer numer numer numer numer numer outubr aparec numer diari</t>
   </si>
   <si>
-    <t>verific conform microfon mes vokal vmmnumeroph acord respec not fiscal n numer numer empr map comerci represent ltd</t>
+    <t>verific conform microfon mes vokal vmm numer ph acord respec not fiscal n numer numer empr map comerci represent ltd</t>
   </si>
   <si>
     <t>realiz cadastr biometr nov estagiar</t>
@@ -3115,7 +3115,7 @@
     <t>cadastr oper cpf numer nom heli alv nasc</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem sit tce especific arqu fs lan appweb releas hom iissqlnumer wwwreleas view legislaca decret cshtml</t>
+    <t>venh atraves dest solic public sistem sit tce especific arqu fs lan appweb releas hom iissql numer wwwreleas view legislaca decret cshtml</t>
   </si>
   <si>
     <t>instal modul bb</t>
@@ -3130,7 +3130,7 @@
     <t>auxili ferrament adicion inform digit</t>
   </si>
   <si>
-    <t>cord cumpr ord dire informa solicit aquis numer tre cab audi vide tip rca mach pnumer mach conform imag anex</t>
+    <t>cord cumpr ord dire informa solicit aquis numer tre cab audi vide tip rca mach p numer mach conform imag anex</t>
   </si>
   <si>
     <t>apoi operac mudanc comput</t>
@@ -3187,7 +3187,7 @@
     <t>solicit prepar auditori reun sobr mut dap</t>
   </si>
   <si>
-    <t>cumpr estil enc estagiar fernand carvalh jacom cpf numer numer numer cadastr biometr usu const trabalh numeroh segund sext feir</t>
+    <t>cumpr estil enc estagiar fernand carvalh jacom cpf numer numer numer cadastr biometr usu const trabalh numer h segund sext feir</t>
   </si>
   <si>
     <t>impres set consegu envi impress da err tent imprim</t>
@@ -3205,7 +3205,7 @@
     <t>possivel aprov pesso sistem tce cham recorr</t>
   </si>
   <si>
-    <t>inclu atalh srv fsnumer dam fgo are trabalh</t>
+    <t>inclu atalh srv fs numer dam fgo are trabalh</t>
   </si>
   <si>
     <t>usu solicit configur term oper</t>
@@ -3229,7 +3229,7 @@
     <t>configur backup estaca trabalh</t>
   </si>
   <si>
-    <t>apoi operac abr arqu mpnumer</t>
+    <t>apoi operac abr arqu mp numer</t>
   </si>
   <si>
     <t>cadastr oper cpf numer nom fernand carvalh jacom</t>
@@ -3253,7 +3253,7 @@
     <t>usu inform ter envi iegm nao salv inform envi entr contat fim ter acess inform apos convers dire din obtiv orient usu dev solic via protocol geral mesm dev ser envi dam</t>
   </si>
   <si>
-    <t>venh atraves dest solic instal servic homologacca posteri produc lrf correc anex numer vers numer numer ger numer numer numer numer numer disponi fsdin dev instal servic si lrfserv homolog instal dess serv necessari execuc script favor verific trig corret anexonumer despesapercentualaplicaca sql anexonumer despesapercentualaplicaca audit sql anexonumer despesavalorexecutadolimitemin sql anexonumer despesavalorexecutadolimitemin audit sql tg anexonumer despesapercentualaplicaca audit sql tg anexonumer despesavalorexecutadolimitemin audit sql disponi fsdin dev numer past desenvolv marcel ciriac numer cham si colet geral numer anex numer nov camp posteri realiz cri camp anex numer instal servic dev ser execut hotfix homologacca posteri produc disponi fsdin dev instal servic si lrfserv homolog lrfservicehotfix anexonumer hotfix dev ser execut tod envi lrf statu numer hotfix vai realiz inset tabel cit acim nest cas numer im ert cad envi lrf</t>
+    <t>venh atraves dest solic instal servic homologacca posteri produc lrf correc anex numer vers numer numer ger numer numer numer numer numer disponi fsdin dev instal servic si lrfserv homolog instal dess serv necessari execuc script favor verific trig corret anex numer despesapercentualaplicaca sql anex numer despesapercentualaplicaca audit sql anex numer despesavalorexecutadolimitemin sql anex numer despesavalorexecutadolimitemin audit sql tg anex numer despesapercentualaplicaca audit sql tg anex numer despesavalorexecutadolimitemin audit sql disponi fsdin dev numer past desenvolv marcel ciriac numer cham si colet geral numer anex numer nov camp posteri realiz cri camp anex numer instal servic dev ser execut hotfix homologacca posteri produc disponi fsdin dev instal servic si lrfserv homolog lrfservicehotfix anex numer hotfix dev ser execut tod envi lrf statu numer hotfix vai realiz inset tabel cit acim nest cas numer im ert cad envi lrf</t>
   </si>
   <si>
     <t>usu solicit auxili envi email</t>
@@ -3298,7 +3298,7 @@
     <t>cadastr oper gerenci</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sit tce disponi homolog fs lan appweb releas hom iissqlnumer wwwreleas</t>
+    <t>venh atraves dest solic public sit tce disponi homolog fs lan appweb releas hom iissql numer wwwreleas</t>
   </si>
   <si>
     <t>atual certic digit sistem legil</t>
@@ -3319,7 +3319,7 @@
     <t>usuar aleg comput deslig</t>
   </si>
   <si>
-    <t>cadastr pesso inidone cpf numer nom cir gustav alv bezerr orig inform pod judici feder sec judiciar rio grand nort numeroa var</t>
+    <t>cadastr pesso inidone cpf numer nom cir gustav alv bezerr orig inform pod judici feder sec judiciar rio grand nort numer a var</t>
   </si>
   <si>
     <t>aprov solicit funcional codig numer nom luan camp gin loren souz</t>
@@ -3355,7 +3355,7 @@
     <t>aprov solicit funcional codig numer nom fernand gurgel dia</t>
   </si>
   <si>
-    <t>cumpr estil solicit cadastr audi control extern ivon vanuz nogu souz matricul numer numer cpf numer numer numer are restrit tce rn vincul perfil coorden fiscal cont govern dam fgo cadastr biometr acess sistem control pont acess past srv fsnumer dam fgo oportun solicit aind conced perfil acess funcional atribu audi control extern carl antoni fre matricul numer numer cpf numer numer numer</t>
+    <t>cumpr estil solicit cadastr audi control extern ivon vanuz nogu souz matricul numer numer cpf numer numer numer are restrit tce rn vincul perfil coorden fiscal cont govern dam fgo cadastr biometr acess sistem control pont acess past srv fs numer dam fgo oportun solicit aind conced perfil acess funcional atribu audi control extern carl antoni fre matricul numer numer cpf numer numer numer</t>
   </si>
   <si>
     <t>aprov solicit funcional codig numer nom jos robertson chav cost</t>
@@ -3421,7 +3421,7 @@
     <t>instal illustra trial gabinet proc lrc</t>
   </si>
   <si>
-    <t>solicit cri cham abert recorr seman sext feir numeroh seguint descr realiz atual pacot adob acsoc coloc joa mar respons ruteni atend mar gabriell figueired xavi solicit</t>
+    <t>solicit cri cham abert recorr seman sext feir numer h seguint descr realiz atual pacot adob acsoc coloc joa mar respons ruteni atend mar gabriell figueired xavi solicit</t>
   </si>
   <si>
     <t>realiz redistribu process numer numer sistem permit assinat cap</t>
@@ -3457,7 +3457,7 @@
     <t>usu inform clic link legil mens err aparec inform usu nao log are restrit inform usu dev fat conec are trabalh ter fic temp inativ inform bast abr fech naveg acess nov are restrit</t>
   </si>
   <si>
-    <t>adicion sel anumerop pagin princip sit tce link http www mma gov br respons socioambient anumerop arqu imag log anex</t>
+    <t>adicion sel numer p pagin princip sit tce link http www mma gov br respons socioambient numer p arqu imag log anex</t>
   </si>
   <si>
     <t>cumpr estil solicit din realiz levant banc dad process dad entr convert eletron period numer numer numer numer</t>
@@ -3484,7 +3484,7 @@
     <t>consig liber impres impress</t>
   </si>
   <si>
-    <t>pont desconsider hor trabalh complement interval almoc numerohr</t>
+    <t>pont desconsider hor trabalh complement interval almoc numer hr</t>
   </si>
   <si>
     <t>tent inclu not fiscal numer numer m b sant ann sistem preench camp cadastr consequ permit inserc document</t>
@@ -3502,7 +3502,7 @@
     <t>duv sobr realiz cadastr gerenci</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem sit tce disponi fs lan appweb releas hom iissqlnumer wwwreleas</t>
+    <t>venh atraves dest solic public sistem sit tce disponi fs lan appweb releas hom iissql numer wwwreleas</t>
   </si>
   <si>
     <t>habil biometr catrac</t>
@@ -3514,7 +3514,7 @@
     <t>inform sobr contat almoxarif</t>
   </si>
   <si>
-    <t>cord cumpr envi orc anex refer repar numer impres hp las monocroma red pnumerow registr sob tomb numer consider cust repar rcifra numer numer dest equip correspond menos numer val impres equival nov sugir aprov pres orc</t>
+    <t>cord cumpr envi orc anex refer repar numer impres hp las monocroma red p numer w registr sob tomb numer consider cust repar rcifra numer numer dest equip correspond menos numer val impres equival nov sugir aprov pres orc</t>
   </si>
   <si>
     <t>aprov solicit funcional codig numer nom josem barret</t>
@@ -3697,7 +3697,7 @@
     <t>implement mal diret decis monocra</t>
   </si>
   <si>
-    <t>prez solicit determin procur ricart ces coelh sant providenc export mid eletron refer process n numer numer tc esclarec oportun mid pod ser disponibil atraves past public dest gabinet srv fsnumer publ proc gab ricart atencios muci med numer numer</t>
+    <t>prez solicit determin procur ricart ces coelh sant providenc export mid eletron refer process n numer numer tc esclarec oportun mid pod ser disponibil atraves past public dest gabinet srv fs numer publ proc gab ricart atencios muci med numer numer</t>
   </si>
   <si>
     <t>configur scan</t>
